--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -49,7 +49,7 @@
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-27</t>
+    <t>2025-11-28</t>
   </si>
   <si>
     <t>NuScale Power Corporation</t>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>날짜</t>
   </si>
@@ -34,40 +34,58 @@
     <t>5일수익률</t>
   </si>
   <si>
-    <t>점수</t>
-  </si>
-  <si>
-    <t>3일확률</t>
-  </si>
-  <si>
-    <t>5일확률</t>
-  </si>
-  <si>
-    <t>10일확률</t>
+    <t>점수(룰)</t>
+  </si>
+  <si>
+    <t>3일상승확률(%)</t>
+  </si>
+  <si>
+    <t>5일상승확률(%)</t>
+  </si>
+  <si>
+    <t>10일상승확률(%)</t>
+  </si>
+  <si>
+    <t>최종점수</t>
+  </si>
+  <si>
+    <t>예측방식</t>
   </si>
   <si>
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-28</t>
+    <t>MACRO_SCORE</t>
+  </si>
+  <si>
+    <t>MACRO_SIGNAL</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>Oklo Inc.</t>
   </si>
   <si>
     <t>NuScale Power Corporation</t>
   </si>
   <si>
-    <t>Oklo Inc.</t>
+    <t>OKLO</t>
   </si>
   <si>
     <t>SMR</t>
   </si>
   <si>
-    <t>OKLO</t>
-  </si>
-  <si>
-    <t>건드리지 말기</t>
-  </si>
-  <si>
-    <t>바닥권 → 분할매수 준비</t>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>📈 매수 관찰 구간입니다.</t>
+  </si>
+  <si>
+    <t>⛔ 관망하십시오.</t>
+  </si>
+  <si>
+    <t>🟢 완화적 (상승 우위)</t>
   </si>
 </sst>
 </file>
@@ -425,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,75 +483,105 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>19.04</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
+        <v>91.88</v>
       </c>
       <c r="F2">
-        <v>-9.890000000000001</v>
+        <v>4.41</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>70</v>
       </c>
       <c r="I2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="J2">
-        <v>76</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
+        <v>83</v>
+      </c>
+      <c r="K2">
+        <v>62</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>88.72</v>
-      </c>
-      <c r="E3">
-        <v>36.7</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>-13.75</v>
+        <v>6.95</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>73</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>55.6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -507,10 +507,10 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>91.88</v>
+        <v>92.13</v>
       </c>
       <c r="F2">
-        <v>4.41</v>
+        <v>4.69</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -525,7 +525,7 @@
         <v>83</v>
       </c>
       <c r="K2">
-        <v>62</v>
+        <v>62.2</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -569,7 +569,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>55.6</v>
+        <v>55.8</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -578,7 +578,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -578,7 +578,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -525,7 +525,7 @@
         <v>83</v>
       </c>
       <c r="K2">
-        <v>62.2</v>
+        <v>62.1</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -569,7 +569,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -578,7 +578,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -507,16 +507,16 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>92.13</v>
+        <v>91.38</v>
       </c>
       <c r="F2">
-        <v>4.69</v>
+        <v>3.84</v>
       </c>
       <c r="G2">
         <v>20</v>
       </c>
       <c r="H2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <v>76</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -578,7 +578,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -525,7 +525,7 @@
         <v>83</v>
       </c>
       <c r="K2">
-        <v>62.1</v>
+        <v>62.2</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -569,7 +569,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -578,7 +578,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -578,7 +578,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -578,7 +578,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -509,6 +509,9 @@
       <c r="D2">
         <v>91.38</v>
       </c>
+      <c r="E2">
+        <v>33.5</v>
+      </c>
       <c r="F2">
         <v>3.84</v>
       </c>
@@ -534,7 +537,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -553,6 +556,9 @@
       <c r="D3">
         <v>20</v>
       </c>
+      <c r="E3">
+        <v>18.7</v>
+      </c>
       <c r="F3">
         <v>6.95</v>
       </c>
@@ -578,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-11-29</t>
+    <t>2025-12-01</t>
   </si>
   <si>
     <t>Oklo Inc.</t>
@@ -537,7 +537,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -584,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -537,7 +537,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -584,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>날짜</t>
   </si>
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-01</t>
+    <t>2025-12-03</t>
   </si>
   <si>
     <t>Oklo Inc.</t>
@@ -79,13 +79,10 @@
     <t>Pattern</t>
   </si>
   <si>
-    <t>📈 매수 관찰 구간입니다.</t>
-  </si>
-  <si>
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 완화적 (상승 우위)</t>
+    <t>🟢 상승 우위 (다소 완화)</t>
   </si>
 </sst>
 </file>
@@ -507,28 +504,28 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>91.38</v>
+        <v>92.19</v>
       </c>
       <c r="E2">
-        <v>33.5</v>
+        <v>40.7</v>
       </c>
       <c r="F2">
-        <v>3.84</v>
+        <v>2.95</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K2">
-        <v>62.2</v>
+        <v>56.6</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -537,10 +534,10 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -554,40 +551,40 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>18.94</v>
       </c>
       <c r="E3">
-        <v>18.7</v>
+        <v>25.2</v>
       </c>
       <c r="F3">
-        <v>6.95</v>
+        <v>-5.02</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>60</v>
       </c>
       <c r="J3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K3">
-        <v>55.8</v>
+        <v>49.6</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
       </c>
       <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>65.32892478746797</v>
+      </c>
+      <c r="O3" t="s">
         <v>22</v>
-      </c>
-      <c r="N3">
-        <v>85.92500513438651</v>
-      </c>
-      <c r="O3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -504,13 +504,13 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>92.19</v>
+        <v>91.84</v>
       </c>
       <c r="E2">
-        <v>40.7</v>
+        <v>40.4</v>
       </c>
       <c r="F2">
-        <v>2.95</v>
+        <v>2.56</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -525,7 +525,7 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,13 +551,13 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>18.94</v>
+        <v>18.91</v>
       </c>
       <c r="E3">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>-5.02</v>
+        <v>-5.17</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -572,7 +572,7 @@
         <v>70</v>
       </c>
       <c r="K3">
-        <v>49.6</v>
+        <v>49.8</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-03</t>
+    <t>2025-12-05</t>
   </si>
   <si>
     <t>Oklo Inc.</t>
@@ -82,7 +82,7 @@
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 상승 우위 (다소 완화)</t>
+    <t>⚪ 중립 구간</t>
   </si>
 </sst>
 </file>
@@ -504,28 +504,28 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>91.84</v>
+        <v>109.53</v>
       </c>
       <c r="E2">
-        <v>40.4</v>
+        <v>56</v>
       </c>
       <c r="F2">
-        <v>2.56</v>
+        <v>23.46</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <v>70</v>
       </c>
       <c r="J2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K2">
-        <v>56.8</v>
+        <v>58.7</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,28 +551,28 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>18.91</v>
+        <v>22.7</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>48.6</v>
       </c>
       <c r="F3">
-        <v>-5.17</v>
+        <v>19.25</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I3">
         <v>60</v>
       </c>
       <c r="J3">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>49.8</v>
+        <v>54.7</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -504,13 +504,13 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>109.53</v>
+        <v>108.78</v>
       </c>
       <c r="E2">
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="F2">
-        <v>23.46</v>
+        <v>22.61</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -519,13 +519,13 @@
         <v>73</v>
       </c>
       <c r="I2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J2">
         <v>86</v>
       </c>
       <c r="K2">
-        <v>58.7</v>
+        <v>59.9</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,13 +551,13 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>22.7</v>
+        <v>22.65</v>
       </c>
       <c r="E3">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="F3">
-        <v>19.25</v>
+        <v>18.96</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -504,13 +504,13 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>108.78</v>
+        <v>109.99</v>
       </c>
       <c r="E2">
-        <v>55.5</v>
+        <v>56.3</v>
       </c>
       <c r="F2">
-        <v>22.61</v>
+        <v>23.97</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -519,13 +519,13 @@
         <v>73</v>
       </c>
       <c r="I2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J2">
         <v>86</v>
       </c>
       <c r="K2">
-        <v>59.9</v>
+        <v>59.1</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,13 +551,13 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>22.65</v>
+        <v>22.68</v>
       </c>
       <c r="E3">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="F3">
-        <v>18.96</v>
+        <v>19.12</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -572,7 +572,7 @@
         <v>53</v>
       </c>
       <c r="K3">
-        <v>54.7</v>
+        <v>55.1</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -504,13 +504,13 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>109.99</v>
+        <v>110.18</v>
       </c>
       <c r="E2">
-        <v>56.3</v>
+        <v>56.4</v>
       </c>
       <c r="F2">
-        <v>23.97</v>
+        <v>24.19</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,28 +551,28 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>22.68</v>
+        <v>22.93</v>
       </c>
       <c r="E3">
-        <v>48.5</v>
+        <v>49.3</v>
       </c>
       <c r="F3">
-        <v>19.12</v>
+        <v>20.43</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
       <c r="H3">
+        <v>46</v>
+      </c>
+      <c r="I3">
+        <v>56</v>
+      </c>
+      <c r="J3">
         <v>50</v>
       </c>
-      <c r="I3">
-        <v>60</v>
-      </c>
-      <c r="J3">
-        <v>53</v>
-      </c>
       <c r="K3">
-        <v>55.1</v>
+        <v>53.5</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>날짜</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Pattern</t>
+  </si>
+  <si>
+    <t>📈 매수 관찰 구간입니다.</t>
   </si>
   <si>
     <t>⛔ 관망하십시오.</t>
@@ -504,28 +507,28 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>110.18</v>
+        <v>112.47</v>
       </c>
       <c r="E2">
-        <v>56.4</v>
+        <v>57.9</v>
       </c>
       <c r="F2">
-        <v>24.19</v>
+        <v>26.76</v>
       </c>
       <c r="G2">
         <v>50</v>
       </c>
       <c r="H2">
+        <v>70</v>
+      </c>
+      <c r="I2">
         <v>73</v>
       </c>
-      <c r="I2">
-        <v>70</v>
-      </c>
       <c r="J2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K2">
-        <v>59.1</v>
+        <v>60.4</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,10 +537,10 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -551,13 +554,13 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>22.93</v>
+        <v>23.15</v>
       </c>
       <c r="E3">
-        <v>49.3</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>20.43</v>
+        <v>21.59</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -572,19 +575,19 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>53.5</v>
+        <v>53.6</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>날짜</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Pattern</t>
-  </si>
-  <si>
-    <t>📈 매수 관찰 구간입니다.</t>
   </si>
   <si>
     <t>⛔ 관망하십시오.</t>
@@ -507,28 +504,28 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>112.47</v>
+        <v>111.65</v>
       </c>
       <c r="E2">
-        <v>57.9</v>
+        <v>57.4</v>
       </c>
       <c r="F2">
-        <v>26.76</v>
+        <v>25.85</v>
       </c>
       <c r="G2">
         <v>50</v>
       </c>
       <c r="H2">
+        <v>73</v>
+      </c>
+      <c r="I2">
         <v>70</v>
       </c>
-      <c r="I2">
-        <v>73</v>
-      </c>
       <c r="J2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K2">
-        <v>60.4</v>
+        <v>59.5</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -537,10 +534,10 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -554,13 +551,13 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>23.15</v>
+        <v>22.85</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>49.1</v>
       </c>
       <c r="F3">
-        <v>21.59</v>
+        <v>20.01</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -575,19 +572,19 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>53.6</v>
+        <v>53.9</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
       </c>
       <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>54.85170003294819</v>
+      </c>
+      <c r="O3" t="s">
         <v>22</v>
-      </c>
-      <c r="N3">
-        <v>54.02451352198364</v>
-      </c>
-      <c r="O3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -525,7 +525,7 @@
         <v>83</v>
       </c>
       <c r="K2">
-        <v>59.5</v>
+        <v>59.4</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -572,7 +572,7 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -525,7 +525,7 @@
         <v>83</v>
       </c>
       <c r="K2">
-        <v>59.4</v>
+        <v>59.5</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -572,7 +572,7 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -525,7 +525,7 @@
         <v>83</v>
       </c>
       <c r="K2">
-        <v>59.5</v>
+        <v>59.4</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -572,7 +572,7 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -525,7 +525,7 @@
         <v>83</v>
       </c>
       <c r="K2">
-        <v>59.4</v>
+        <v>58.5</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -572,7 +572,7 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>53.8</v>
+        <v>52.9</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -525,7 +525,7 @@
         <v>83</v>
       </c>
       <c r="K2">
-        <v>58.5</v>
+        <v>58.3</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -572,7 +572,7 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>52.9</v>
+        <v>52.7</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>날짜</t>
   </si>
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-05</t>
+    <t>2025-12-06</t>
   </si>
   <si>
     <t>Oklo Inc.</t>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Pattern</t>
+  </si>
+  <si>
+    <t>📈 매수 관찰 구간입니다.</t>
   </si>
   <si>
     <t>⛔ 관망하십시오.</t>
@@ -504,28 +507,28 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>111.65</v>
+        <v>105.45</v>
       </c>
       <c r="E2">
-        <v>57.4</v>
+        <v>55.6</v>
       </c>
       <c r="F2">
-        <v>25.85</v>
+        <v>15.4</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K2">
-        <v>58.3</v>
+        <v>63.9</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,10 +537,10 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -551,40 +554,40 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>22.85</v>
+        <v>22.15</v>
       </c>
       <c r="E3">
         <v>49.1</v>
       </c>
       <c r="F3">
-        <v>20.01</v>
+        <v>10.75</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
       <c r="H3">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I3">
+        <v>66</v>
+      </c>
+      <c r="J3">
         <v>56</v>
       </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
       <c r="K3">
-        <v>52.7</v>
+        <v>56.9</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -507,13 +507,13 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>105.45</v>
+        <v>104.79</v>
       </c>
       <c r="E2">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="F2">
-        <v>15.4</v>
+        <v>14.67</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -528,7 +528,7 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>63.9</v>
+        <v>63.6</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -537,7 +537,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -554,28 +554,28 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>22.15</v>
+        <v>22.06</v>
       </c>
       <c r="E3">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
       <c r="F3">
-        <v>10.75</v>
+        <v>10.29</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I3">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>56.9</v>
+        <v>55.4</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -584,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -507,13 +507,13 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>104.79</v>
+        <v>104.54</v>
       </c>
       <c r="E2">
-        <v>55.1</v>
+        <v>54.9</v>
       </c>
       <c r="F2">
-        <v>14.67</v>
+        <v>14.4</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -537,7 +537,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -554,13 +554,13 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>22.06</v>
+        <v>22.04</v>
       </c>
       <c r="E3">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="F3">
-        <v>10.29</v>
+        <v>10.2</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -584,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -507,13 +507,13 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>104.54</v>
+        <v>104.91</v>
       </c>
       <c r="E2">
-        <v>54.9</v>
+        <v>55.2</v>
       </c>
       <c r="F2">
-        <v>14.4</v>
+        <v>14.81</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -528,7 +528,7 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>63.6</v>
+        <v>63.1</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -537,7 +537,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -554,19 +554,19 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>22.04</v>
+        <v>21.93</v>
       </c>
       <c r="E3">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
       <c r="F3">
-        <v>10.2</v>
+        <v>9.65</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
       <c r="H3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I3">
         <v>63</v>
@@ -575,7 +575,7 @@
         <v>53</v>
       </c>
       <c r="K3">
-        <v>55.4</v>
+        <v>54.9</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -584,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>

--- a/DECISION/미장_SMR_분석.xlsx
+++ b/DECISION/미장_SMR_분석.xlsx
@@ -507,13 +507,13 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>104.91</v>
+        <v>104.67</v>
       </c>
       <c r="E2">
-        <v>55.2</v>
+        <v>55</v>
       </c>
       <c r="F2">
-        <v>14.81</v>
+        <v>14.54</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -528,7 +528,7 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>63.1</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -537,7 +537,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -554,28 +554,28 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>21.93</v>
+        <v>21.39</v>
       </c>
       <c r="E3">
-        <v>48.4</v>
+        <v>46.8</v>
       </c>
       <c r="F3">
-        <v>9.65</v>
+        <v>6.95</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I3">
         <v>63</v>
       </c>
       <c r="J3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K3">
-        <v>54.9</v>
+        <v>52.9</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -584,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>
